--- a/Datasets/_Datasets Sent/SR_metadata.xlsx
+++ b/Datasets/_Datasets Sent/SR_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udemontreal-my.sharepoint.com/personal/guillaume_genois_umontreal_ca/Documents/Projet Curation des métadonnées/Datasets/_Datasets Sent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_261150FC7C1502149B698B4CD94EF6B8E5158667" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3787D75D-4DFE-4EB1-A060-27201A9490F2}"/>
+  <xr:revisionPtr revIDLastSave="332" documentId="11_261150FC7C1502149B698B4CD94EF6B8E5158667" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13149C8A-CAD1-4292-B746-6D3ECEA5F7D7}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="571" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestNN" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,21 @@
     <sheet name="GameSE" sheetId="3" r:id="rId3"/>
     <sheet name="Template" sheetId="4" state="hidden" r:id="rId4"/>
     <sheet name="DTCPS" sheetId="5" r:id="rId5"/>
+    <sheet name="Behave" sheetId="8" r:id="rId6"/>
+    <sheet name="TrustSE" sheetId="9" r:id="rId7"/>
+    <sheet name="ModelingAssist" sheetId="12" r:id="rId8"/>
+    <sheet name="ModelGuidance" sheetId="11" r:id="rId9"/>
+    <sheet name="OODP" sheetId="13" r:id="rId10"/>
+    <sheet name="ESPLE" sheetId="14" r:id="rId11"/>
+    <sheet name="SecSelfAdapt" sheetId="15" r:id="rId12"/>
+    <sheet name="SmellReprod" sheetId="16" r:id="rId13"/>
+    <sheet name="ArchiML" sheetId="17" r:id="rId14"/>
+    <sheet name="CodeCompr" sheetId="18" r:id="rId15"/>
+    <sheet name="CodeClone" sheetId="19" r:id="rId16"/>
   </sheets>
+  <definedNames>
+    <definedName name="bsec0002" localSheetId="7">ModelingAssist!$E$3</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -29,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="236">
   <si>
     <t>Link</t>
   </si>
@@ -501,12 +515,423 @@
   <si>
     <t>This paper presents a systematic literature review of existing techniques in which digital twins are used to test cyber–physical systems.</t>
   </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jss.2023.111749</t>
+  </si>
+  <si>
+    <t>Behaviour Driven Development (BDD) is an agile technique in which software requirements are specified in a semi-structured natural language using Given-When-Then to express examples (also called scenarios) of expected software behaviour or how a user will interact with a software system.</t>
+  </si>
+  <si>
+    <t>RQ1: How is the concept of software trust and SECO trust defined in literature?</t>
+  </si>
+  <si>
+    <t>RQ2: What trust factors do end-user organizations consider when selecting software products?</t>
+  </si>
+  <si>
+    <t>Studies published since the 1990s</t>
+  </si>
+  <si>
+    <t>When studies reported the same research, only the most recent one was included</t>
+  </si>
+  <si>
+    <t>Studies that were in the field of software engineering</t>
+  </si>
+  <si>
+    <t>Studies that were not accessible in full-text</t>
+  </si>
+  <si>
+    <t>Studies that were not peer-reviewed</t>
+  </si>
+  <si>
+    <t>Studies that were not presented in English</t>
+  </si>
+  <si>
+    <t>Studies that were incomplete, short papers, or only provided literature in the form of abstracts, prefaces, or presentation slides</t>
+  </si>
+  <si>
+    <t>Studies that were books or gray literature</t>
+  </si>
+  <si>
+    <t>Software ecosystems (SECOs) are sets of actors that collaboratively serve a market for software and services, typically with an underlying technical platform. The union of all SECOs creates the worldwide SECO.</t>
+  </si>
+  <si>
+    <t>A software end-user is an individual who adopts or intends to adopt a software product to make them more productive.</t>
+  </si>
+  <si>
+    <t>An end-user organization represents a set of end-users who collaboratively add software products to their software portfolio. They expect that the software products add value to their organization’s goals.</t>
+  </si>
+  <si>
+    <t>A software engineer is a talented individual who creates and maintains software products.</t>
+  </si>
+  <si>
+    <t>An Software Producing Organization (SPO) is an organization that builds and maintains software to create valuable software that should be adopted as widely as possible. SPOs typically employ software engineers who create and maintain software products. Generally they have additional goals, such as sustaining the organization through a business model.</t>
+  </si>
+  <si>
+    <t>Package Maintainers are a subset of SPOs. Package maintainers are responsible for developing and maintaining software packages and their frameworks. They manage the development in code hosting platforms or repositories, such as GitHub. Additionally, they configure package builds to ensure that packages can be sourced from the distribution by extracting the source code from the collection of binaries in the distribution.</t>
+  </si>
+  <si>
+    <t>A software product is a packaged configuration of software components or a software-based service, with auxiliary materials released for and traded in a specific market.</t>
+  </si>
+  <si>
+    <t>A software component is an independent unit, having well-defined interfaces and dependencies that can be composed and deployed independently.</t>
+  </si>
+  <si>
+    <t>A library is a collection of prewritten functions or data structures that is organized to perform the same technically essential functions, such as functions that handle compatibility issues; it may be used as a dependency, avoiding the need to write code from scratch.</t>
+  </si>
+  <si>
+    <t>A package is simply a collection that contains software, libraries, and metadata.</t>
+  </si>
+  <si>
+    <t>Ecosystem services are services that enable better flows of value in the ecosystem, such as an application store in which end-user organizations can rapidly identify new solutions and add them to their application portfolios.</t>
+  </si>
+  <si>
+    <t>A package manager provides a privileged, central mechanism for managing the installation and upgrade of packages on a computer’s operating system automatically.</t>
+  </si>
+  <si>
+    <t>A package repository is just a web server that hosts packages and their associated metadata.</t>
+  </si>
+  <si>
+    <t>Trustors generate their trust based on a number of observed behaviors or performances, where qualitative attributes are primary. The software must be of high-quality and meet the trustor’s standards.</t>
+  </si>
+  <si>
+    <t>Software Trustworthiness reflects the probability that a software product will experience a security failure in a given time. Security refers to preventing deliberate or accidental attacks. The term “software security failure” describes a flaw discovered by its software provider or the security community.</t>
+  </si>
+  <si>
+    <t>A systematic literature review to understand software trust in the SECO better and summarize the key impact factors based on their frequency of mention.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10664-022-10238-y</t>
+  </si>
+  <si>
+    <t>RQ1: What are the types of venues in which BDD studies have been published?</t>
+  </si>
+  <si>
+    <t>RQ2: Who is working on BDD research?</t>
+  </si>
+  <si>
+    <t>RQ3: What types of research have been conducted on BDD?</t>
+  </si>
+  <si>
+    <t>RQ4: What types of contributions have been made by existing research on BDD?</t>
+  </si>
+  <si>
+    <t>RQ5: What research evaluation methods have been used in BDD research?</t>
+  </si>
+  <si>
+    <t>RQ6: What themes have been covered in existing BDD research?</t>
+  </si>
+  <si>
+    <t>RQ7: How have the studied BDD topics evolved over time?</t>
+  </si>
+  <si>
+    <t>RQ8: How are the contributions in BDD research distributed with respect to research types and topics?</t>
+  </si>
+  <si>
+    <t>1. The title and abstract show that the paper is about BDD</t>
+  </si>
+  <si>
+    <t>2. The paper reports a primary study</t>
+  </si>
+  <si>
+    <t>3. The paper is peer-reviewed</t>
+  </si>
+  <si>
+    <t>1. Papers mentioning BDD in the title or abstract but could not be considered as describing research on BDD</t>
+  </si>
+  <si>
+    <t>2. Papers presenting editorials and summaries of conferences</t>
+  </si>
+  <si>
+    <t>3. Papers published in non-peer-reviewed venues</t>
+  </si>
+  <si>
+    <t>4. Papers not accessible in full text</t>
+  </si>
+  <si>
+    <t>5. Papers that are duplicates of other studies</t>
+  </si>
+  <si>
+    <t>6. General book chapters that explain what BDD is</t>
+  </si>
+  <si>
+    <t>7. Papers of poor quality that lack sound methodology, clear statement of aims and/or have no contribution</t>
+  </si>
+  <si>
+    <t>Conduct a Systematic Mapping Study on BDD, to understand the types of venues in which BDD papers have been published, types of research and contributions in published BDD studies, focus and evolution of research on BDD, as well as evaluation methods that have been used in BDD studies.</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0950584920301555</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.infsof.2023.107222</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10270-023-01117-1</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/10262145</t>
+  </si>
+  <si>
+    <t>(E2) The proposal is not related to software engineering.</t>
+  </si>
+  <si>
+    <t>(E5) The proposal's full text is not available.</t>
+  </si>
+  <si>
+    <t>Modelling Assistance in Model Driven Software Engineering Tools: A Systematic Mapping Study and a State of the Practice.</t>
+  </si>
+  <si>
+    <t>RQ: What kind of guidance exists in SE literature on model creation?</t>
+  </si>
+  <si>
+    <t>It is clear from the title that modelling/diagrams are not a contribution.</t>
+  </si>
+  <si>
+    <t>The conference/journal is from a different field of science.</t>
+  </si>
+  <si>
+    <t>The paper is not peer reviewed.</t>
+  </si>
+  <si>
+    <t>The paper discusses properties of modelling languages or compares languages.</t>
+  </si>
+  <si>
+    <t>The paper has a prose title, or clearly points into a different direction than investigated in our review.</t>
+  </si>
+  <si>
+    <t>The paper is about descriptive models of a scientific or real-life concept, as opposed to a system. For instance, process improvement models such as CMMI, or models of course curricula.</t>
+  </si>
+  <si>
+    <t>Modelling in a different domain of computer science, e.g. database models, machine learning models, or neural network models.</t>
+  </si>
+  <si>
+    <t>Extended abstracts for tool demos or posters.</t>
+  </si>
+  <si>
+    <t>Meta studies such as literature reviews, or comparative studies such as controlled experiments.</t>
+  </si>
+  <si>
+    <t>It is clear from the abstract that the paper focuses on any of the following.
+    (a) Language design/meta modelling
+    (b) Model transformations
+    (c) Secondary studies such as SLRs
+    (d) Controlled experiments or other comparative studies
+    (e) Descriptive models of a scientific or real-life concept, as opposed to a software system
+    (f) Architectural styles or design patterns
+    (g) AI-based modelling guidance</t>
+  </si>
+  <si>
+    <t>To better understand shortcomings in the literature on guidance and training in modelling, this paper reports on a Systematic Literature Review surveying work on guidelines, styles, or training approaches on creating software and system models in Software Engineering.</t>
+  </si>
+  <si>
+    <t>Modelling is a creative task, which requires thinking and problem solving, both of which can affect the quality of the model.</t>
+  </si>
+  <si>
+    <t>Modelling styles are "consistent individual differences in preferred ways of creating and processing software models."</t>
+  </si>
+  <si>
+    <t>Modelling methods are "sets of steps or constraints on how one or multilple models are created."</t>
+  </si>
+  <si>
+    <t>Guidelines are "information intended to advise people on how something should be done or what something should be."</t>
+  </si>
+  <si>
+    <t>RQ1: What language features have been suggested to improve design patterns implementations?</t>
+  </si>
+  <si>
+    <t>RQ2: Which design patterns have the most associated language features suggestions?</t>
+  </si>
+  <si>
+    <t>RQ3: What measures have been used to evaluate the impact of these language features on design patterns implementations?</t>
+  </si>
+  <si>
+    <t>RQ4: What experiments have been done on these language features?</t>
+  </si>
+  <si>
+    <t>1. Study is in the field of software engineering.</t>
+  </si>
+  <si>
+    <t>2. Study is related to the improvement of design patterns and must propose a language feature to do so. (Studies relating exclusively to measuring the impact of existing design patterns against non-pattern code are not kept.)</t>
+  </si>
+  <si>
+    <t>3. Study was published between 1995 and 2022.</t>
+  </si>
+  <si>
+    <t>1. Study is not related to one or more specific design patterns.</t>
+  </si>
+  <si>
+    <t>2. Study is not peer-reviewed.</t>
+  </si>
+  <si>
+    <t>3. Study is not written in English.</t>
+  </si>
+  <si>
+    <t>4. Study has no accessible full-text online.</t>
+  </si>
+  <si>
+    <t>5. Documents that are books or gray literature.</t>
+  </si>
+  <si>
+    <t>6. Study is a duplicate. (We kept the longer version.)</t>
+  </si>
+  <si>
+    <t>A systematic mapping study to identify language features claimed to improve design patterns implementations. The goal is to identify which language features have been suggested to improve OOP design patterns implementations, which design patterns implementations are being improved upon, which measures are used to evaluate these improvements, and what empirical data was collected to assess these improvements.</t>
+  </si>
+  <si>
+    <t>Meta-programming is a paradigm allowing programs to generate or modify their structure (either at compile, load-time, or run-time).</t>
+  </si>
+  <si>
+    <t>Aspect-Oriented Programming (AOP) is a paradigm extension to procedural programming. The goal of AOP is to increase modularity by encapsulating cross-cutting concerns into code units called Aspects. Aspects are a language construct similar to classes in OOP.</t>
+  </si>
+  <si>
+    <t>Reflection is an application of meta-programming. It allows developers to manipulate the data structures at run-time.</t>
+  </si>
+  <si>
+    <t>Reactive Programming is a design paradigm which addresses asynchronous programming logic, especially concerning value updating and change propagation. It can be combined with Functional and Object-Oriented Programming to facilitate dealing with problems related to data updating.</t>
+  </si>
+  <si>
+    <t>Signals are a feature of Reactive Programming that allows expressing dependencies among values. When a dependency of a signal changes, the expression defined by the signal is automatically recomputed from the new values of the dependencies.</t>
+  </si>
+  <si>
+    <t>Functional Programming is a paradigm that uses pure functions to assemble higher-order functions (i.e., functions that receive other functions as arguments, such as map, reduce, etc.) to create programs.</t>
+  </si>
+  <si>
+    <t>Case Classes, also known as pattern matching, are a feature of functional programming languages.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Closures are the main feature of the Functional Programming paradigm. A Closure is an encapsulation of behaviour and data, much like Classes are in OOP. Unlike Classes, a Closure only encapsulates one function and its data cannot be directly accessed from outside the closure (with some exceptions). </t>
+  </si>
+  <si>
+    <t>Immutability is a property of many Functional Programming languages. For example, we stated above that the Command design pattern is similar to Closures, with the exception that it can expose its internal data and mutators. In an immutable context, this advantage becomes unconsequential as the exposed data could not be interacted with in any significant way. In an immutable context, Closures make the Command pattern obsolete.</t>
+  </si>
+  <si>
+    <t>Object-Oriented Programming is a paradigm that uses four general features to organize code: encapsulation, abstraction, inheritance, and polymorphism. Features classified under this paradigm directly affect OOP or require it to function.</t>
+  </si>
+  <si>
+    <t>Chameleon Objects is a feature proposed by Batdalov and Nikiforova to help with the implementation of the State and Factory Method design patterns. The feature allows an object to change class at runtime.</t>
+  </si>
+  <si>
+    <t>Default Implementation is a feature that allows abstract classes to specify a default concrete implementation.</t>
+  </si>
+  <si>
+    <t>With class extensions, it becomes possible to encapsulate duplicated code from a design pattern implementation into an extension.</t>
+  </si>
+  <si>
+    <t>Extended Initialization is a feature to help with the implementation of the Builder and Factory Method patterns. This feature would allow object creation to be divided into multiple steps (effectively achieving the same functionality as the Builder pattern and rendering it obsolete).</t>
+  </si>
+  <si>
+    <t>Mixins are an extension of the OOP paradigm to combine classes together. Unlike inheritance, Mixins do not enforce an “is-a” relationship between the individual classes.</t>
+  </si>
+  <si>
+    <t>Object Interaction Styles is a feature to help with the implementation of the Proxy, Observer, and Facade patterns. They would allow different ways of interacting with objects through method calls. The default interaction style is synchronous calls, where a caller awaits the result of the method before continuing to the next instruction. Other interaction styles include asynchronous request/response, broadcast, and publish/subscribe.</t>
+  </si>
+  <si>
+    <t>OOP languages allow subclassing a member in a subclass to help with the implementation of the Template Method and Visitor patterns. A subclass may redefine one of its members by restricting its class.</t>
+  </si>
+  <si>
+    <t>RQ1: Are there empirical studies on SPLE with human intervention?</t>
+  </si>
+  <si>
+    <t>RQ2: What is the quality of the empirical studies reported in SPLE?</t>
+  </si>
+  <si>
+    <t>RQ3: What is the scope of empirical research in SPLE?</t>
+  </si>
+  <si>
+    <t>1. Papers published between 2000 and 2018</t>
+  </si>
+  <si>
+    <t>2. Peer reviewed articles</t>
+  </si>
+  <si>
+    <t>3. Papers related to empirical strategies with human intervention</t>
+  </si>
+  <si>
+    <t>2. Papers from journals with nine pages or less and papers from conferences with five pages or less to exclude short papers.</t>
+  </si>
+  <si>
+    <t>3. Duplicate papers</t>
+  </si>
+  <si>
+    <t>4. Literature reviews, mapping studies, and tertiary reviews to focus only on primary studies.</t>
+  </si>
+  <si>
+    <t>5. Papers that do not have empirical evidence with intervention of humans in SPLE.</t>
+  </si>
+  <si>
+    <t>6. Papers where only the authors themselves are involved as participants</t>
+  </si>
+  <si>
+    <t>1. Peer reviewed articles of conferences, and workshops except from these conferences:
+ •International Systems &amp; Software Product Lines Conference (SPLC)
+ •International Symposium on Empirical Software Engineering and Measurement (ESEM)
+ •International Conference on Software Engineering (ICSE)
+ •International Symposium on Foundations of Software Engineering (ESEC/FSE)
+ •International Conference on Evaluation and Assessment in Software Engineering (ESEAM)</t>
+  </si>
+  <si>
+    <t>Software product lines (SPLs) aim to support the development of a family of software products through the systematic reuse of shared assets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Discover and summarize the studies that have used empirical evidences in Software Product Line Engineering (SPLE) limited to those ones with the intervention of humans.</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0950584924000971</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jss.2023.111796</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jss.2023.111728</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jss.2023.111860</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S095058492100224X</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jss.2023.111716</t>
+  </si>
+  <si>
+    <t>Model Driven Software Engineering (MDSE) and low-code/no-code tools are software development tools that use models as the main input to generate software.</t>
+  </si>
+  <si>
+    <t>Modelling assistance is the strategy—i.e., any method, technique, framework, or guideline—that aims to assist humans during software modelling tasks in MDSE tools.</t>
+  </si>
+  <si>
+    <t>RQ1. How is software modelling assisted?</t>
+  </si>
+  <si>
+    <t>RQ3. Which evaluation metrics and target users do existing modelling assistance proposals consider?</t>
+  </si>
+  <si>
+    <t>(I2) Is the proposal designed to assist users during modelling tasks in MDSE tools? We focus on proposals that assist users during modelling tasks in MDSE tools, including—but not limited to—modelling, model tracing, model debugging, model repair, and model validation, among others. As mentioned in Section 2, proposals specifically targeting the development of new MDSE tools do not fulfil I2.</t>
+  </si>
+  <si>
+    <t>(I1) Is the paper exclusively dedicated to a particular proposal, rather than being a compilation of proposals, aimed at assisting users during modelling tasks in MDSE tools?</t>
+  </si>
+  <si>
+    <t>(E1) The proposal's main contribution is not to assist users during modelling in MDSE tools. If assisting users during modelling tasks is not the main contribution, we exclude the proposal using E1—e.g., a proposal showing a new MDSE tool where assisting users during modelling tasks is superficially mentioned and is not the main goal of the proposal.</t>
+  </si>
+  <si>
+    <t>(E3) The proposal is not written in English.</t>
+  </si>
+  <si>
+    <t>(E4) The proposal is not a peer-reviewed publication.</t>
+  </si>
+  <si>
+    <t>RQ2. What goals and limitations do existing modelling assistance proposals report?</t>
+  </si>
+  <si>
+    <t>RQ4. What is the state of the practice on modelling assistance?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,6 +950,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -550,7 +981,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -558,12 +989,294 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="49">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -644,6 +1357,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau26" displayName="Tableau26" ref="A1:F8" totalsRowShown="0">
   <autoFilter ref="A1:F8" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
@@ -659,6 +1376,111 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{FDFBD496-016F-4ECA-9794-10AC24C99732}" name="Tableau2911" displayName="Tableau2911" ref="A1:F18" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A1:F18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{FDCB47A1-0B7A-4D02-BBB1-DC2A15B6A56D}" name="Link" dataDxfId="22" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="2" xr3:uid="{DDE08B9B-69C0-4189-B0DA-E7EC9F30CCEE}" name="Topic" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{186DAECF-7340-44D1-8A78-F8D7145947C5}" name="Definitions" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{FAC2FCB2-F895-4CDC-8328-7CFD3426D2DF}" name="Research questions" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{908D7060-F82C-4332-8F23-26E64DDAA302}" name="Inclusion criteria" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{5EE73402-BB91-4051-B287-7937FF24FD8F}" name="Exclusion criteria" dataDxfId="17"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{9F21A95C-CE81-4F39-8382-77F8CA6AFF63}" name="Tableau291112" displayName="Tableau291112" ref="A1:F7" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:F7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{838F3C3C-D92E-43FC-91B8-4261F04C324A}" name="Link" dataDxfId="14" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="2" xr3:uid="{63BD9556-D4C6-468F-9B25-09DC5C288A3F}" name="Topic" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{60972BAA-0127-4CD0-9709-B240266E1667}" name="Definitions" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{413B6281-F4E9-4593-8527-02D2109423F4}" name="Research questions" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{4C973CE1-25AD-4019-B8BB-C487D96F6512}" name="Inclusion criteria" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{EB2C5248-8FB4-4A74-AE93-379C9129E38C}" name="Exclusion criteria" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{5A2F9E98-03A4-498A-82BF-D2D73CA51CB7}" name="Tableau213" displayName="Tableau213" ref="A1:F2" totalsRowShown="0">
+  <autoFilter ref="A1:F2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{E6D737CD-B321-46DA-8374-652105AF0383}" name="Link" dataDxfId="0" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="2" xr3:uid="{68496D58-37AD-45B9-A593-20F0C9B014D1}" name="Topic"/>
+    <tableColumn id="3" xr3:uid="{C09773DB-C6C2-4767-BD01-79FAD216D591}" name="Definitions"/>
+    <tableColumn id="4" xr3:uid="{E4A2A5C1-6CE6-4210-B508-AAE650E5BA19}" name="Research questions"/>
+    <tableColumn id="5" xr3:uid="{B2E60AD9-79CC-4369-B5EE-343E7B546368}" name="Inclusion criteria"/>
+    <tableColumn id="6" xr3:uid="{2DF14E44-563C-4AB5-947D-C94D914767B7}" name="Exclusion criteria"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{7DB03802-95DA-4681-BB2D-697C4398F5F0}" name="Tableau21314" displayName="Tableau21314" ref="A1:F2" totalsRowShown="0">
+  <autoFilter ref="A1:F2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{FC343DB5-06F4-425D-9DC0-5B41FFA2FBE6}" name="Link"/>
+    <tableColumn id="2" xr3:uid="{CDB83B9E-0E92-4773-BB5D-39BB8B315782}" name="Topic"/>
+    <tableColumn id="3" xr3:uid="{F9C6F6BD-052A-4EF8-A3CD-93FC88EDAB38}" name="Definitions"/>
+    <tableColumn id="4" xr3:uid="{BF2A8F62-537D-449E-9268-52D99DEE5EB1}" name="Research questions"/>
+    <tableColumn id="5" xr3:uid="{171D2F36-56C8-497A-9EEA-89559EAA54DE}" name="Inclusion criteria"/>
+    <tableColumn id="6" xr3:uid="{9D709ACA-BBAE-4B49-BAB0-FD61DBE8DBD2}" name="Exclusion criteria"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{31C206B0-0636-4AE1-BC85-DE37B5017FE8}" name="Tableau2131415" displayName="Tableau2131415" ref="A1:F2" totalsRowShown="0">
+  <autoFilter ref="A1:F2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{D87B9C92-6374-4C10-A084-10CC492629FC}" name="Link"/>
+    <tableColumn id="2" xr3:uid="{CD2F3414-C6D7-4E61-9E72-93C97BCDD114}" name="Topic"/>
+    <tableColumn id="3" xr3:uid="{D80F43C9-BB22-4522-88E7-91959651AADD}" name="Definitions"/>
+    <tableColumn id="4" xr3:uid="{0288A10D-212D-42FD-A867-A51DAA672684}" name="Research questions"/>
+    <tableColumn id="5" xr3:uid="{4D82ABCE-299D-4029-8C52-7059AA8D3197}" name="Inclusion criteria"/>
+    <tableColumn id="6" xr3:uid="{79823B39-89D0-4F7D-8910-7CE320F0C02C}" name="Exclusion criteria"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{624D388E-2A5C-40C9-9E6F-E3E63300AF20}" name="Tableau213141516" displayName="Tableau213141516" ref="A1:F2" totalsRowShown="0">
+  <autoFilter ref="A1:F2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{0E89DED2-A413-40D7-AFCE-ABDBA5E8D895}" name="Link"/>
+    <tableColumn id="2" xr3:uid="{05BD4CAF-CDAC-44D2-897A-8BEE5237E203}" name="Topic"/>
+    <tableColumn id="3" xr3:uid="{C353998E-E140-4127-B64E-8EFB167C6065}" name="Definitions"/>
+    <tableColumn id="4" xr3:uid="{EE9EA9B2-4685-4E73-8C01-D1077262DBAA}" name="Research questions"/>
+    <tableColumn id="5" xr3:uid="{55541BC9-185D-4331-85A5-7984156AA235}" name="Inclusion criteria"/>
+    <tableColumn id="6" xr3:uid="{578A67C7-B5B9-47E0-8CDC-8CA8B9815B61}" name="Exclusion criteria"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{8913C4D0-9F39-448A-A1E3-4EFE35F40EBC}" name="Tableau21314151617" displayName="Tableau21314151617" ref="A1:F2" totalsRowShown="0">
+  <autoFilter ref="A1:F2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{7899E231-E1EF-4D74-BF25-12348DCCD5F8}" name="Link"/>
+    <tableColumn id="2" xr3:uid="{77D42AEE-2E64-4685-A71B-AF2A47199AD9}" name="Topic"/>
+    <tableColumn id="3" xr3:uid="{E561F99E-339F-420E-BBCC-D5D0AFF36212}" name="Definitions"/>
+    <tableColumn id="4" xr3:uid="{78D9E0D1-6032-4217-AC34-7285A376FD45}" name="Research questions"/>
+    <tableColumn id="5" xr3:uid="{801A0AB8-BB70-4E10-98B1-991DABBACE42}" name="Inclusion criteria"/>
+    <tableColumn id="6" xr3:uid="{861623C1-C580-4E86-B140-D9708534C453}" name="Exclusion criteria"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau25" displayName="Tableau25" ref="A1:F9" totalsRowShown="0">
   <autoFilter ref="A1:F9" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
@@ -714,6 +1536,66 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Research questions"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Inclusion criteria"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Exclusion criteria"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{32AEF01A-D6D4-4E34-B5FC-2BDF6AA2DCB9}" name="Tableau27" displayName="Tableau27" ref="A1:F15" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{5EE6EC3B-1DDD-42C3-904C-1948CD51AFA8}" name="Link" dataDxfId="46" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="2" xr3:uid="{DBE62ADB-0C08-48DF-840D-B5F68F0BD294}" name="Topic" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{5AB0A917-8CEF-491B-B521-7DEC7EBFE048}" name="Definitions" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{F0EE042E-60EC-4201-895C-8561121228E4}" name="Research questions" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{3FAAC23B-2184-4130-A3E9-0E54D8CC697A}" name="Inclusion criteria" dataDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{8497CC3A-517D-40E4-8145-069777E87198}" name="Exclusion criteria" dataDxfId="41"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{FFFC1710-CEC4-4940-8764-F55BA276EFF8}" name="Tableau278" displayName="Tableau278" ref="A1:F16" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+  <autoFilter ref="A1:F16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{F3834B42-F426-43A1-A266-6B45913B3320}" name="Link" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{0303F2C9-CEBE-4B6F-BB4C-9B55ABCA436B}" name="Topic" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{C06B9FAB-27A1-48E3-91D5-456E066CD71A}" name="Definitions" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{31F1E629-A4C3-4ECE-83F4-88FD122A214F}" name="Research questions" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{152171F9-FD5F-4A47-9155-D0D843C9B045}" name="Inclusion criteria" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{4886FC61-7E8D-4E88-B42E-D57FAE612318}" name="Exclusion criteria" dataDxfId="33"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{278F8B2F-F0C8-459C-B732-E0DF0BBF5987}" name="Tableau210" displayName="Tableau210" ref="A1:F6" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="A1:F6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{429546C4-0EF0-4CF1-8BA6-49B4FEA593CC}" name="Link" dataDxfId="8" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="2" xr3:uid="{1068B8E7-2BA3-4E76-AD4F-3235E94A81FD}" name="Topic" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{6FD76E99-95FA-4A87-8A5A-4C251967636E}" name="Definitions" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{E523BF9C-7A65-41F3-9A06-38FF62A88F17}" name="Research questions" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{89ACB3EB-94D0-4CC3-A8EC-0F565935580D}" name="Inclusion criteria" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{297CE02D-609D-422B-9B38-47728FD82851}" name="Exclusion criteria" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A5982F48-6CDA-4074-B33A-AA9859EE1DA1}" name="Tableau29" displayName="Tableau29" ref="A1:F34" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+  <autoFilter ref="A1:F34" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{D7D90E9B-30D8-419E-A8C3-FEBE28A75DE8}" name="Link" dataDxfId="30" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="2" xr3:uid="{CA0C295F-0AE1-408A-AB75-8010A4BD1153}" name="Topic" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{EEC776FF-8C7C-42E3-96D6-CAA1243CD0B4}" name="Definitions" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{9100B27D-3AA5-48A3-8CAA-F0D85852F2F6}" name="Research questions" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{CEF82D53-E350-4632-A007-C8D8D040A237}" name="Inclusion criteria" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{48859DA7-2ABA-4F18-8BD5-4FD5EC454262}" name="Exclusion criteria" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1013,6 +1895,579 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BE27D1-FC8B-4FCC-9577-8A1390EFCE79}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="24.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.6328125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A3" s="5"/>
+      <c r="C3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="5"/>
+      <c r="C4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
+      <c r="C5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="5"/>
+      <c r="C6" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="F6" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="C7" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="C8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="C9" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" ht="174" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+      <c r="C10" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A11" s="5"/>
+      <c r="C11" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="C12" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A13" s="5"/>
+      <c r="C13" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="5"/>
+      <c r="C14" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="5"/>
+      <c r="C15" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+      <c r="C16" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="5"/>
+      <c r="C17" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A18" s="5"/>
+      <c r="C18" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{488C7A75-C04D-4437-8B14-52A6CA1DC4BD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508C21AA-42CD-4436-89CB-908061F0F07E}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="24.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7265625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.6328125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="232" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="5"/>
+      <c r="D3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="5"/>
+      <c r="D4" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
+      <c r="F5" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="5"/>
+      <c r="F6" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="F7" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{4DB96C03-3D06-471F-987B-CD4A37D61BC4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEBBFA14-1322-4E98-87BF-3DDDDE43EA58}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="24.1796875" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" customWidth="1"/>
+    <col min="5" max="5" width="28.6328125" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{CFA06BC9-342A-4258-BB2D-EEF37B0A8C08}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A8C2DB-A48E-4FCA-BDC2-A672730951E2}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="24.1796875" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" customWidth="1"/>
+    <col min="5" max="5" width="28.6328125" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A605BA-CD4A-4954-943D-B03D1FA3E84E}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="24.1796875" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" customWidth="1"/>
+    <col min="5" max="5" width="28.6328125" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C5532A-FC34-407C-96B5-FEC1C4716903}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="24.1796875" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" customWidth="1"/>
+    <col min="5" max="5" width="28.6328125" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F83910-2967-4B85-A916-FCE29DD58188}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="24.1796875" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" customWidth="1"/>
+    <col min="5" max="5" width="28.6328125" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F9"/>
@@ -1329,7 +2784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1499,4 +2954,632 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954D5BC9-7FEB-46E6-AEFC-DC5B4F68F5F6}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="24.1796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.6328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="10.6328125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
+      <c r="D3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="D4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="D5" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
+      <c r="D6" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
+      <c r="D7" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4"/>
+      <c r="D8" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="D9" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{5EA0094C-2B52-495B-9776-F9643C5600FA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35EE3D8-70BE-41C2-8F33-1DDD9250A5A5}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="24.1796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.6328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="10.6328125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="C4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="C5" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="C6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="C7" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C8" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="C9" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="C10" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C11" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="C12" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="C13" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C14" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C15" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="C16" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{E5E3ED64-F408-4E09-941E-BE92FD0E0518}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B6DEE2-F317-44E3-8C00-B83AE33B56C8}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="24.1796875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="28.6328125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="10.6328125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="290" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="11"/>
+      <c r="D4" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="11"/>
+      <c r="D5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="11"/>
+      <c r="F6" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{2FE4ABE4-FD59-436D-BE9B-43A41F323EE4}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{4C01A702-A952-4255-8374-A3AFAA1213A1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13ACB25F-A7EC-4321-8707-32021CCE86B3}">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="24.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.6328125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="174" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="391.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="C3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="C4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="C5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="E6" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
+      <c r="E7" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="6"/>
+      <c r="E8" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="E9" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="6"/>
+      <c r="E10" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="6"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="6"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="6"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="6"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="6"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="6"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="6"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="6"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="6"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="6"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="6"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="6"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="6"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="6"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{B9A78298-2987-4573-95BA-327486B80A27}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Datasets/_Datasets Sent/SR_metadata.xlsx
+++ b/Datasets/_Datasets Sent/SR_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udemontreal-my.sharepoint.com/personal/guillaume_genois_umontreal_ca/Documents/Projet Curation des métadonnées/Datasets/_Datasets Sent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="332" documentId="11_261150FC7C1502149B698B4CD94EF6B8E5158667" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13149C8A-CAD1-4292-B746-6D3ECEA5F7D7}"/>
+  <xr:revisionPtr revIDLastSave="634" documentId="11_261150FC7C1502149B698B4CD94EF6B8E5158667" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6E99021-16CF-4A7C-A978-51CD2A9E0A02}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="571" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="571" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestNN" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,32 @@
     <sheet name="DTCPS" sheetId="5" r:id="rId5"/>
     <sheet name="Behave" sheetId="8" r:id="rId6"/>
     <sheet name="TrustSE" sheetId="9" r:id="rId7"/>
-    <sheet name="ModelingAssist" sheetId="12" r:id="rId8"/>
-    <sheet name="ModelGuidance" sheetId="11" r:id="rId9"/>
-    <sheet name="OODP" sheetId="13" r:id="rId10"/>
-    <sheet name="ESPLE" sheetId="14" r:id="rId11"/>
-    <sheet name="SecSelfAdapt" sheetId="15" r:id="rId12"/>
-    <sheet name="SmellReprod" sheetId="16" r:id="rId13"/>
-    <sheet name="ArchiML" sheetId="17" r:id="rId14"/>
-    <sheet name="CodeCompr" sheetId="18" r:id="rId15"/>
-    <sheet name="CodeClone" sheetId="19" r:id="rId16"/>
+    <sheet name="ModelGuidance" sheetId="11" r:id="rId8"/>
+    <sheet name="ESPLE" sheetId="14" r:id="rId9"/>
+    <sheet name="SecSelfAdapt" sheetId="15" r:id="rId10"/>
+    <sheet name="SmellReprod" sheetId="16" r:id="rId11"/>
+    <sheet name="OODP" sheetId="13" r:id="rId12"/>
+    <sheet name="ArchiML" sheetId="17" r:id="rId13"/>
+    <sheet name="CodeCompr" sheetId="18" r:id="rId14"/>
+    <sheet name="CodeClone" sheetId="19" r:id="rId15"/>
+    <sheet name="ModelingAssist" sheetId="12" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="bsec0002" localSheetId="7">ModelingAssist!$E$3</definedName>
+    <definedName name="bsec0002" localSheetId="15">ModelingAssist!$E$3</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -43,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="337">
   <si>
     <t>Link</t>
   </si>
@@ -926,12 +937,360 @@
   <si>
     <t>RQ4. What is the state of the practice on modelling assistance?</t>
   </si>
+  <si>
+    <t>Adaptation is what gives SASs the ability to modify their behavior in response to changes within and outside the system. The type of adaptation possible is usually described in terms of self-* properties.</t>
+  </si>
+  <si>
+    <t>a self-adaptive system consists of two distinct parts, wherein the first part (self-awareness element) interacts with the environment, while the second part cooperates with the first part and deals with any adaptation concerns</t>
+  </si>
+  <si>
+    <t>MAPE-K loop: M stands for Monitoring (system and environment), A for Analysis (what change should happen?), P for Planning (decision(s) to be made), E for Execution (of the action decided), and K for Knowledge base (a shared space that maintains data of the system and its environment).</t>
+  </si>
+  <si>
+    <t>The term adaptation properties refers to the characteristics (non-functional operational properties) of the system that need to be maintained to ascertain the normal operating condition of such a system. Examples of the qualities are: availability, efficiency, performance, reliability, robustness, security, and stability.</t>
+  </si>
+  <si>
+    <t>The Common Attack Pattern Enumeration and Classification (CAPEC)1 scheme postulated by the MITRE Corporation demonstrates a hierarchical framework of different ways by which systems are attacked by a foreign entity. These techniques include Deceptive Interactions, Abuse of Existing Functionality of the System, Data Structure Manipulation, System Resources Manipulation, Injection of Unexpected Items, Employing Probabilistic Techniques, Manipulation of System Timing and State, Collect and Analyze Information, and Circumventing or Subverting Access Control.</t>
+  </si>
+  <si>
+    <t>The CIA triad represents the most commonly used and applied information security model. It is used to provide various organizations and types of systems with knowledge on how to keep data secure. The model consists of the following three aspects: (1) confidentiality — prevention of unauthorized disclosure or use of information assets, (2) integrity — prevention of unauthorized modification of information assets, and (3) availability — ensuring authorized access of information assets when required</t>
+  </si>
+  <si>
+    <t>The term risk represents the joint probabilities of occurrence of various harms and their respective severities.</t>
+  </si>
+  <si>
+    <t>Hazard sources can be classified as internal and external. For example, an internal factor can be mechanical or software related, while external ones can relate to human and environment interaction.</t>
+  </si>
+  <si>
+    <t>(RQ1) Which security attacks and safety hazards in the context of self-adaptive systems are described in the literature?</t>
+  </si>
+  <si>
+    <t>(RQ2) How are security attacks and safety hazards related and which safety mitigation and treatment strategies exist?</t>
+  </si>
+  <si>
+    <t>(RQ3) How are models used in the context of security, safety, and self-adaptive systems, and which analysis approaches are utilized?</t>
+  </si>
+  <si>
+    <t>(RQ4) What open challenges are described in the literature in relation to self-adaptive systems?</t>
+  </si>
+  <si>
+    <t>Peer-reviewed articles</t>
+  </si>
+  <si>
+    <t>Gray and white literature</t>
+  </si>
+  <si>
+    <t>Accessible in full text</t>
+  </si>
+  <si>
+    <t>Non-English articles</t>
+  </si>
+  <si>
+    <t>Published between year 2000 and 2020</t>
+  </si>
+  <si>
+    <t>Secondary studies</t>
+  </si>
+  <si>
+    <t>Discusses explicitly self-adaptation, self-healing or relates to a self-adaptive architecture</t>
+  </si>
+  <si>
+    <t>Addresses security and safety</t>
+  </si>
+  <si>
+    <t>Addresses verification and validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A joint analysis of safety and security aspects in cyber–physical systems (CPS) is necessary, particularly to expose security implications on system safety and vice versa. </t>
+  </si>
+  <si>
+    <t>This study collects and compares security attacks and safety hazards on self-adaptive systems (SAS) described in the literature. In addition, mitigation and treatment strategies, as well as the modeling and analysis approaches, are investigated.</t>
+  </si>
+  <si>
+    <t>This paper aims to investigate the possible reasons for the inconsistencies between studies in the performance of applied machine learning algorithms compared to developers by performing a systematic review. It focuses on the reproducibility of existing studies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code smells are usually understood as patterns in the source code which make it less comprehensible and more error-prone (sometimes they are called antipatterns). </t>
+  </si>
+  <si>
+    <r>
+      <t>reproducibility</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> means obtaining consistent computational results using the same input data, computational steps, methods, code, and conditions of analysis</t>
+    </r>
+  </si>
+  <si>
+    <t>With the notion of self-management in autonomic computing that allows a computing system to dynamically modify its configuration in response to a change in the system while adhering to business goals, Self-adaptive Systems (SAS) refer to systems that are able to respond to changes in the operating environment thereby affecting the system’s structure, behavior or even the system’s logic.</t>
+  </si>
+  <si>
+    <t>Self-protection describes a group of self-managing systems capable of detecting and mitigating security threats at runtime </t>
+  </si>
+  <si>
+    <t>Self-healing is the ability of a system to return to a functional state after being compromised by an anomalous agent. Self-healing systems endeavor to heal themselves in a similar fashion as a biological system heals from a wound from faults and recovers into normalcy</t>
+  </si>
+  <si>
+    <t>Self-optimization allows for systems to find the optimal solution such as configuration or output</t>
+  </si>
+  <si>
+    <t>Self-configuration is the feature of a system to dynamically and automatically reconfigure itself in response to changes. It allows for the adaptation of a new component or new execution environment within a system with little or no human intervention</t>
+  </si>
+  <si>
+    <r>
+      <t>replicability</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> means obtaining consistent results across studies aimed at answering the same scientific question, each of which has obtained its own data</t>
+    </r>
+  </si>
+  <si>
+    <t>RQ1: Is the process of creating code smell machine learning models reproducible in the recent scientific studies on code smell detection using AI/ML methods?</t>
+  </si>
+  <si>
+    <t>RQ2: Is the process of code smell data set acquisition reproducible in the recent scientific studies on code smell detection using AI/ML methods?</t>
+  </si>
+  <si>
+    <t>1. The entry is a single journal paper, chapter of a book or conference proceedings paper which requires peer review (i.e., it is not an editorial, abstract, technical report etc.).</t>
+  </si>
+  <si>
+    <t>2. The paper is written in English.</t>
+  </si>
+  <si>
+    <t>3. The paper was published in 1999 or later.</t>
+  </si>
+  <si>
+    <t>4. Title or abstract of the paper indicates that it is related to software engineering.</t>
+  </si>
+  <si>
+    <t>5. Title or abstract of the paper indicates that at least one code smell/anti-pattern plays an important part of the study.</t>
+  </si>
+  <si>
+    <t>6. Title or abstract of the paper indicates that it might use machine learning techniques.</t>
+  </si>
+  <si>
+    <t>7. Abstract or full text of the paper indicates that it focuses on code smells/anti-patterns in programming languages.</t>
+  </si>
+  <si>
+    <t>8. Abstract or full text of the paper indicates that it focuses on code smells/anti-patterns detection using source code.</t>
+  </si>
+  <si>
+    <t>9. The paper does not focus on techniques for resolving code smells/anti-patterns.</t>
+  </si>
+  <si>
+    <t>10. The paper does not focus on using code smells/anti-patterns as predictors of other code or project traits.</t>
+  </si>
+  <si>
+    <t>11. The paper focuses on detection/prediction of code smells/anti-patterns.</t>
+  </si>
+  <si>
+    <t>12. If the paper is a chapter of a book or conference proceedings publication, its authors have not published a study under the same title in a journal (we want to include the paper once and it may be expected that the journal version includes more details).</t>
+  </si>
+  <si>
+    <t>13. Full text of the paper is available.</t>
+  </si>
+  <si>
+    <t>2. Studies written in English.</t>
+  </si>
+  <si>
+    <t>3. Studies available as full-text.</t>
+  </si>
+  <si>
+    <t>RQ1: What are the most common software architecture design challenges in ML-enabled systems?</t>
+  </si>
+  <si>
+    <t>RQ2: What are the best practices in architecting ML-enabled systems?</t>
+  </si>
+  <si>
+    <t>RQ3: What are the main software architectural design decisions for ML-enabled systems?</t>
+  </si>
+  <si>
+    <t>1. Secondary and tertiary studies (e.g., systematic literature reviews, surveys, etc.).</t>
+  </si>
+  <si>
+    <t>2. Studies in the form of tutorial papers, short papers, poster papers, editorials, and manuals, because they do not provide enough information.</t>
+  </si>
+  <si>
+    <t>The research goal of this work is to identify common challenges, best design practices, and main software architecture design decisions of machine learning enabled systems from the point of view of researchers and practitioners by performing a systematic review.</t>
+  </si>
+  <si>
+    <t>Uncertainty management: properly managing uncertainty permits to avoid significant resource expenses during development. This includes properly (i) architecting data pipelines from training, to deployment, maintenance, and evolution, and (ii) accounting for retraining models and incorporating new data.</t>
+  </si>
+  <si>
+    <t>Quality aspects of ML-enabled systems: properly understanding and managing key quality attributes of ML-enabled systems avoid failures, e.g., boundary erosion, entanglement, hidden feedback loops, undeclared consumers, data dependencies, configuration issues, and changes in the external world</t>
+  </si>
+  <si>
+    <t>Integration with other components: properly designing and integrating ML components with other components, as well as understanding architectural dependencies, is a key aspect for the successful development of effective ML-based systems.</t>
+  </si>
+  <si>
+    <t>This paper proposes a systematic literature review and meta-analysis on code similarity measurement and evaluation techniques to shed light on the existing approaches and their characteristics in different applications.</t>
+  </si>
+  <si>
+    <t>In this paper, we aim to provide a more comprehensive view of the existing knowledge about the impact of different formatting elements on code legibility. We conducted a systematic literature review and identified 15 papers containing human-centric studies that directly compared alternative formatting elements.</t>
+  </si>
+  <si>
+    <t>We use the term understandability to refer to the ease with which developers are able to extract information from a program that is useful for a software development- or maintenance-related task just by reading its source code.</t>
+  </si>
+  <si>
+    <t>code conventions are a body of advice on lexical and syntactic aspects of code, aiming to standardize low-level code design under the assumption that such a systematic approach will make code easier to read, understand, and maintain</t>
+  </si>
+  <si>
+    <t>Comprehension (not reading comprehension, but rather linguistic comprehension) is the process by which given lexical (i.e., word) information, sentences and discourses are interpreted. Decoding and linguistic comprehension are separate components of reading skill.</t>
+  </si>
+  <si>
+    <t>readability: the structural and semantic characteristics of the source code of a program that affect the ability of developers to understand it while reading the code, e.g., programming constructs, coding idioms, and meaningful identifiers</t>
+  </si>
+  <si>
+    <t>legibility: the visual characteristics of the source code of a program, which affect the ability of developers to identify the elements of the code while reading it, such as line breaks, spacing, alignment, indentation, blank lines, identifier capitalization</t>
+  </si>
+  <si>
+    <t>RQ1: What formatting elements at the source code level have been investigated in human-centric studies?</t>
+  </si>
+  <si>
+    <t>RQ2: Which levels of formatting elements have been found to make the source code more legible?</t>
+  </si>
+  <si>
+    <t>Formatting elements, such as spacing, are factors that impact the legibility of the source code and, consequently, may affect the ability of developers to identify the elements of the code while reading it.</t>
+  </si>
+  <si>
+    <t>EC3.: The study is about legibility, readability, or understandability metrics.</t>
+  </si>
+  <si>
+    <t>EC1.: The study is clearly irrelevant to our research questions, i.e., it is not primarily related to source code comprehension, readability, legibility, or hard-to-understand code, or does not involve any comparison of different ways of writing code.</t>
+  </si>
+  <si>
+    <t>EC2.: The study is not a full paper (e.g., PhD theses or 4-page papers), is not written in English, or was not peer-reviewed.</t>
+  </si>
+  <si>
+    <t>EC4.: The study is about program comprehension aids, such as visualizations or other forms of analysis or sensory aids, e.g., trace-based execution, code summarization, and character encodings supporting colors.</t>
+  </si>
+  <si>
+    <t>EC5.: The study focuses on accessibility, e.g., targets individuals with visual impairments or neurodiverse developers.</t>
+  </si>
+  <si>
+    <t>IC1 (Scope).: The study must be primarily related to legibility.</t>
+  </si>
+  <si>
+    <t>IC2 (Methodology).: The study must be or contain a controlled experiment, quasi-experiment, or survey involving human subjects.</t>
+  </si>
+  <si>
+    <t>IC3 (Comparison).: The study must directly compare alternative formatting elements in terms of code legibility, and the alternatives must be clearly identifiable.</t>
+  </si>
+  <si>
+    <t>IC4 (Granularity).: The study must target fine-grained program elements and low-level/limited-scope programming activities. Not design or comments, but implementation.</t>
+  </si>
+  <si>
+    <t>Architecting ML-enabled systems: ????</t>
+  </si>
+  <si>
+    <t>RQ1: What are the existing code similarity measurement approaches and techniques, and what are their advantages and disadvantages?</t>
+  </si>
+  <si>
+    <t>RQ2: What are the applications of code similarity measurement in software engineering activities and tasks?</t>
+  </si>
+  <si>
+    <t>RQ3: What are the existing code similarity measurement tools, and which programming languages are supported by each tool?</t>
+  </si>
+  <si>
+    <t>RQ4: Which software projects and datasets have been used to build and evaluate code similarity measurement tools?</t>
+  </si>
+  <si>
+    <t>RQ5: How is the performance of the existing code similarity measurement methods?</t>
+  </si>
+  <si>
+    <t>RQ6: What are the existing challenges and opportunities in source code similarity measurement?</t>
+  </si>
+  <si>
+    <t>EC4: Articles that did not directly discuss a source code similarity measurement approach in their abstract were removed. For example, some papers have discussed binary code similarity.</t>
+  </si>
+  <si>
+    <t>EC6: Theses, books, journal covers and metadata, secondary, tertiary, empirical, and case studies were removed.</t>
+  </si>
+  <si>
+    <t>EC1: The articles repeated in citation databases were removed. We kept only one version of each duplicated article.</t>
+  </si>
+  <si>
+    <t>EC2: Articles whose main text was written in any language other than English or only their abstract and keywords were in English were eliminated.</t>
+  </si>
+  <si>
+    <t>EC3: Articles whose total text was less than three pages were removed. After reviewing them, we removed these articles and ensured they did not contain significant contributions. If there are good clues in these articles to find other suitable topics and articles, we consider these clues while applying the inclusion criteria and snowballing phases.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EC5: The papers that had not proposed an </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>automated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> approach for source code similarity measurement were removed. We excluded these articles since the similarity measurement technique was necessary when classifying methods.</t>
+    </r>
+  </si>
+  <si>
+    <t>IC1: At least one keyword of the article existed in our search string.</t>
+  </si>
+  <si>
+    <t>IC2: The title or abstract of the article is about the measurement or application of the source code similarity.</t>
+  </si>
+  <si>
+    <t>IC3: The article has been cited at least once. This criterion was considered only for articles that were published before 2021. Using this condition, we could ensure other researchers in the community have considered the paper.</t>
+  </si>
+  <si>
+    <t>IC4: The conference paper is considered if it does not have any journal extension. Otherwise, only its journal extension was included since articles published in a journal often offer more complete descriptions than their conferences counterpart.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source code similarity is a concept used to measure the similarity degree between a piece of code snippets with respect to the text, syntax, and semantics. Although there is no well-established definition for code similarity in general, typically, the similarity score for any two code snippets , is measured with a real number where the higher the score is, the more similar and are. </t>
+  </si>
+  <si>
+    <t>Two code snippets c1, c2 are clones if they are similar according to some definition of similarity.</t>
+  </si>
+  <si>
+    <t>Cross-language clones typically occur when a codebase is prepared to use in different environments for portability. For instance, the main codebase of the game is actually the same while building a game for different operating systems, and there are slight differences for each operating system.</t>
+  </si>
+  <si>
+    <t>1. Studies subject to peer review.</t>
+  </si>
+  <si>
+    <t>5. Studies describing software architecture best practices for machine learning systems.</t>
+  </si>
+  <si>
+    <t>4. Studies discussing software architecture challenges for machine learning systems.</t>
+  </si>
+  <si>
+    <t>6. Studies describing software architecture design decisions for machine learning systems.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -959,6 +1318,28 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -981,7 +1362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1016,17 +1397,243 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="77">
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <i val="0"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <i val="0"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <i val="0"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1155,78 +1762,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1377,105 +1912,105 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{FDFBD496-016F-4ECA-9794-10AC24C99732}" name="Tableau2911" displayName="Tableau2911" ref="A1:F18" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="A1:F18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{5A2F9E98-03A4-498A-82BF-D2D73CA51CB7}" name="Tableau213" displayName="Tableau213" ref="A1:F14" totalsRowShown="0" dataDxfId="28">
+  <autoFilter ref="A1:F14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FDCB47A1-0B7A-4D02-BBB1-DC2A15B6A56D}" name="Link" dataDxfId="22" dataCellStyle="Lien hypertexte"/>
-    <tableColumn id="2" xr3:uid="{DDE08B9B-69C0-4189-B0DA-E7EC9F30CCEE}" name="Topic" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{186DAECF-7340-44D1-8A78-F8D7145947C5}" name="Definitions" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{FAC2FCB2-F895-4CDC-8328-7CFD3426D2DF}" name="Research questions" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{908D7060-F82C-4332-8F23-26E64DDAA302}" name="Inclusion criteria" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{5EE73402-BB91-4051-B287-7937FF24FD8F}" name="Exclusion criteria" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{E6D737CD-B321-46DA-8374-652105AF0383}" name="Link" dataDxfId="27" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="2" xr3:uid="{68496D58-37AD-45B9-A593-20F0C9B014D1}" name="Topic" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{C09773DB-C6C2-4767-BD01-79FAD216D591}" name="Definitions" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{E4A2A5C1-6CE6-4210-B508-AAE650E5BA19}" name="Research questions" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{B2E60AD9-79CC-4369-B5EE-343E7B546368}" name="Inclusion criteria" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{2DF14E44-563C-4AB5-947D-C94D914767B7}" name="Exclusion criteria" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{9F21A95C-CE81-4F39-8382-77F8CA6AFF63}" name="Tableau291112" displayName="Tableau291112" ref="A1:F7" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A1:F7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{7DB03802-95DA-4681-BB2D-697C4398F5F0}" name="Tableau21314" displayName="Tableau21314" ref="A1:F27" totalsRowShown="0" dataDxfId="21">
+  <autoFilter ref="A1:F27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{838F3C3C-D92E-43FC-91B8-4261F04C324A}" name="Link" dataDxfId="14" dataCellStyle="Lien hypertexte"/>
-    <tableColumn id="2" xr3:uid="{63BD9556-D4C6-468F-9B25-09DC5C288A3F}" name="Topic" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{60972BAA-0127-4CD0-9709-B240266E1667}" name="Definitions" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{413B6281-F4E9-4593-8527-02D2109423F4}" name="Research questions" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{4C973CE1-25AD-4019-B8BB-C487D96F6512}" name="Inclusion criteria" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{EB2C5248-8FB4-4A74-AE93-379C9129E38C}" name="Exclusion criteria" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{FC343DB5-06F4-425D-9DC0-5B41FFA2FBE6}" name="Link" dataDxfId="20" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="2" xr3:uid="{CDB83B9E-0E92-4773-BB5D-39BB8B315782}" name="Topic" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{F9C6F6BD-052A-4EF8-A3CD-93FC88EDAB38}" name="Definitions" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{BF2A8F62-537D-449E-9268-52D99DEE5EB1}" name="Research questions" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{171D2F36-56C8-497A-9EEA-89559EAA54DE}" name="Inclusion criteria" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{9D709ACA-BBAE-4B49-BAB0-FD61DBE8DBD2}" name="Exclusion criteria" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{5A2F9E98-03A4-498A-82BF-D2D73CA51CB7}" name="Tableau213" displayName="Tableau213" ref="A1:F2" totalsRowShown="0">
-  <autoFilter ref="A1:F2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{FDFBD496-016F-4ECA-9794-10AC24C99732}" name="Tableau2911" displayName="Tableau2911" ref="A1:F18" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+  <autoFilter ref="A1:F18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E6D737CD-B321-46DA-8374-652105AF0383}" name="Link" dataDxfId="0" dataCellStyle="Lien hypertexte"/>
-    <tableColumn id="2" xr3:uid="{68496D58-37AD-45B9-A593-20F0C9B014D1}" name="Topic"/>
-    <tableColumn id="3" xr3:uid="{C09773DB-C6C2-4767-BD01-79FAD216D591}" name="Definitions"/>
-    <tableColumn id="4" xr3:uid="{E4A2A5C1-6CE6-4210-B508-AAE650E5BA19}" name="Research questions"/>
-    <tableColumn id="5" xr3:uid="{B2E60AD9-79CC-4369-B5EE-343E7B546368}" name="Inclusion criteria"/>
-    <tableColumn id="6" xr3:uid="{2DF14E44-563C-4AB5-947D-C94D914767B7}" name="Exclusion criteria"/>
+    <tableColumn id="1" xr3:uid="{FDCB47A1-0B7A-4D02-BBB1-DC2A15B6A56D}" name="Link" dataDxfId="42" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="2" xr3:uid="{DDE08B9B-69C0-4189-B0DA-E7EC9F30CCEE}" name="Topic" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{186DAECF-7340-44D1-8A78-F8D7145947C5}" name="Definitions" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{FAC2FCB2-F895-4CDC-8328-7CFD3426D2DF}" name="Research questions" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{908D7060-F82C-4332-8F23-26E64DDAA302}" name="Inclusion criteria" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{5EE73402-BB91-4051-B287-7937FF24FD8F}" name="Exclusion criteria" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{7DB03802-95DA-4681-BB2D-697C4398F5F0}" name="Tableau21314" displayName="Tableau21314" ref="A1:F2" totalsRowShown="0">
-  <autoFilter ref="A1:F2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{31C206B0-0636-4AE1-BC85-DE37B5017FE8}" name="Tableau2131415" displayName="Tableau2131415" ref="A1:F9" totalsRowShown="0" dataDxfId="14">
+  <autoFilter ref="A1:F9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FC343DB5-06F4-425D-9DC0-5B41FFA2FBE6}" name="Link"/>
-    <tableColumn id="2" xr3:uid="{CDB83B9E-0E92-4773-BB5D-39BB8B315782}" name="Topic"/>
-    <tableColumn id="3" xr3:uid="{F9C6F6BD-052A-4EF8-A3CD-93FC88EDAB38}" name="Definitions"/>
-    <tableColumn id="4" xr3:uid="{BF2A8F62-537D-449E-9268-52D99DEE5EB1}" name="Research questions"/>
-    <tableColumn id="5" xr3:uid="{171D2F36-56C8-497A-9EEA-89559EAA54DE}" name="Inclusion criteria"/>
-    <tableColumn id="6" xr3:uid="{9D709ACA-BBAE-4B49-BAB0-FD61DBE8DBD2}" name="Exclusion criteria"/>
+    <tableColumn id="1" xr3:uid="{D87B9C92-6374-4C10-A084-10CC492629FC}" name="Link" dataDxfId="13" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="2" xr3:uid="{CD2F3414-C6D7-4E61-9E72-93C97BCDD114}" name="Topic" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{D80F43C9-BB22-4522-88E7-91959651AADD}" name="Definitions" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{0288A10D-212D-42FD-A867-A51DAA672684}" name="Research questions" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{4D82ABCE-299D-4029-8C52-7059AA8D3197}" name="Inclusion criteria" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{79823B39-89D0-4F7D-8910-7CE320F0C02C}" name="Exclusion criteria" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{31C206B0-0636-4AE1-BC85-DE37B5017FE8}" name="Tableau2131415" displayName="Tableau2131415" ref="A1:F2" totalsRowShown="0">
-  <autoFilter ref="A1:F2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{624D388E-2A5C-40C9-9E6F-E3E63300AF20}" name="Tableau213141516" displayName="Tableau213141516" ref="A1:F11" totalsRowShown="0">
+  <autoFilter ref="A1:F11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D87B9C92-6374-4C10-A084-10CC492629FC}" name="Link"/>
-    <tableColumn id="2" xr3:uid="{CD2F3414-C6D7-4E61-9E72-93C97BCDD114}" name="Topic"/>
-    <tableColumn id="3" xr3:uid="{D80F43C9-BB22-4522-88E7-91959651AADD}" name="Definitions"/>
-    <tableColumn id="4" xr3:uid="{0288A10D-212D-42FD-A867-A51DAA672684}" name="Research questions"/>
-    <tableColumn id="5" xr3:uid="{4D82ABCE-299D-4029-8C52-7059AA8D3197}" name="Inclusion criteria"/>
-    <tableColumn id="6" xr3:uid="{79823B39-89D0-4F7D-8910-7CE320F0C02C}" name="Exclusion criteria"/>
+    <tableColumn id="1" xr3:uid="{0E89DED2-A413-40D7-AFCE-ABDBA5E8D895}" name="Link" dataDxfId="7" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="2" xr3:uid="{05BD4CAF-CDAC-44D2-897A-8BEE5237E203}" name="Topic" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{C353998E-E140-4127-B64E-8EFB167C6065}" name="Definitions" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{EE9EA9B2-4685-4E73-8C01-D1077262DBAA}" name="Research questions"/>
+    <tableColumn id="5" xr3:uid="{55541BC9-185D-4331-85A5-7984156AA235}" name="Inclusion criteria" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{578A67C7-B5B9-47E0-8CDC-8CA8B9815B61}" name="Exclusion criteria" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{624D388E-2A5C-40C9-9E6F-E3E63300AF20}" name="Tableau213141516" displayName="Tableau213141516" ref="A1:F2" totalsRowShown="0">
-  <autoFilter ref="A1:F2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{8913C4D0-9F39-448A-A1E3-4EFE35F40EBC}" name="Tableau21314151617" displayName="Tableau21314151617" ref="A1:F13" totalsRowShown="0">
+  <autoFilter ref="A1:F13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0E89DED2-A413-40D7-AFCE-ABDBA5E8D895}" name="Link"/>
-    <tableColumn id="2" xr3:uid="{05BD4CAF-CDAC-44D2-897A-8BEE5237E203}" name="Topic"/>
-    <tableColumn id="3" xr3:uid="{C353998E-E140-4127-B64E-8EFB167C6065}" name="Definitions"/>
-    <tableColumn id="4" xr3:uid="{EE9EA9B2-4685-4E73-8C01-D1077262DBAA}" name="Research questions"/>
-    <tableColumn id="5" xr3:uid="{55541BC9-185D-4331-85A5-7984156AA235}" name="Inclusion criteria"/>
-    <tableColumn id="6" xr3:uid="{578A67C7-B5B9-47E0-8CDC-8CA8B9815B61}" name="Exclusion criteria"/>
+    <tableColumn id="1" xr3:uid="{7899E231-E1EF-4D74-BF25-12348DCCD5F8}" name="Link" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="2" xr3:uid="{77D42AEE-2E64-4685-A71B-AF2A47199AD9}" name="Topic" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{E561F99E-339F-420E-BBCC-D5D0AFF36212}" name="Definitions"/>
+    <tableColumn id="4" xr3:uid="{78D9E0D1-6032-4217-AC34-7285A376FD45}" name="Research questions"/>
+    <tableColumn id="5" xr3:uid="{801A0AB8-BB70-4E10-98B1-991DABBACE42}" name="Inclusion criteria" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{861623C1-C580-4E86-B140-D9708534C453}" name="Exclusion criteria" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{8913C4D0-9F39-448A-A1E3-4EFE35F40EBC}" name="Tableau21314151617" displayName="Tableau21314151617" ref="A1:F2" totalsRowShown="0">
-  <autoFilter ref="A1:F2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{278F8B2F-F0C8-459C-B732-E0DF0BBF5987}" name="Tableau210" displayName="Tableau210" ref="A1:F6" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+  <autoFilter ref="A1:F6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7899E231-E1EF-4D74-BF25-12348DCCD5F8}" name="Link"/>
-    <tableColumn id="2" xr3:uid="{77D42AEE-2E64-4685-A71B-AF2A47199AD9}" name="Topic"/>
-    <tableColumn id="3" xr3:uid="{E561F99E-339F-420E-BBCC-D5D0AFF36212}" name="Definitions"/>
-    <tableColumn id="4" xr3:uid="{78D9E0D1-6032-4217-AC34-7285A376FD45}" name="Research questions"/>
-    <tableColumn id="5" xr3:uid="{801A0AB8-BB70-4E10-98B1-991DABBACE42}" name="Inclusion criteria"/>
-    <tableColumn id="6" xr3:uid="{861623C1-C580-4E86-B140-D9708534C453}" name="Exclusion criteria"/>
+    <tableColumn id="1" xr3:uid="{429546C4-0EF0-4CF1-8BA6-49B4FEA593CC}" name="Link" dataDxfId="58" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="2" xr3:uid="{1068B8E7-2BA3-4E76-AD4F-3235E94A81FD}" name="Topic" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{6FD76E99-95FA-4A87-8A5A-4C251967636E}" name="Definitions" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{E523BF9C-7A65-41F3-9A06-38FF62A88F17}" name="Research questions" dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{89ACB3EB-94D0-4CC3-A8EC-0F565935580D}" name="Inclusion criteria" dataDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{297CE02D-609D-422B-9B38-47728FD82851}" name="Exclusion criteria" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1542,60 +2077,60 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{32AEF01A-D6D4-4E34-B5FC-2BDF6AA2DCB9}" name="Tableau27" displayName="Tableau27" ref="A1:F15" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{32AEF01A-D6D4-4E34-B5FC-2BDF6AA2DCB9}" name="Tableau27" displayName="Tableau27" ref="A1:F15" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
   <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{5EE6EC3B-1DDD-42C3-904C-1948CD51AFA8}" name="Link" dataDxfId="46" dataCellStyle="Lien hypertexte"/>
-    <tableColumn id="2" xr3:uid="{DBE62ADB-0C08-48DF-840D-B5F68F0BD294}" name="Topic" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{5AB0A917-8CEF-491B-B521-7DEC7EBFE048}" name="Definitions" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{F0EE042E-60EC-4201-895C-8561121228E4}" name="Research questions" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{3FAAC23B-2184-4130-A3E9-0E54D8CC697A}" name="Inclusion criteria" dataDxfId="42"/>
-    <tableColumn id="6" xr3:uid="{8497CC3A-517D-40E4-8145-069777E87198}" name="Exclusion criteria" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{5EE6EC3B-1DDD-42C3-904C-1948CD51AFA8}" name="Link" dataDxfId="74" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="2" xr3:uid="{DBE62ADB-0C08-48DF-840D-B5F68F0BD294}" name="Topic" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{5AB0A917-8CEF-491B-B521-7DEC7EBFE048}" name="Definitions" dataDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{F0EE042E-60EC-4201-895C-8561121228E4}" name="Research questions" dataDxfId="71"/>
+    <tableColumn id="5" xr3:uid="{3FAAC23B-2184-4130-A3E9-0E54D8CC697A}" name="Inclusion criteria" dataDxfId="70"/>
+    <tableColumn id="6" xr3:uid="{8497CC3A-517D-40E4-8145-069777E87198}" name="Exclusion criteria" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{FFFC1710-CEC4-4940-8764-F55BA276EFF8}" name="Tableau278" displayName="Tableau278" ref="A1:F16" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{FFFC1710-CEC4-4940-8764-F55BA276EFF8}" name="Tableau278" displayName="Tableau278" ref="A1:F16" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
   <autoFilter ref="A1:F16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F3834B42-F426-43A1-A266-6B45913B3320}" name="Link" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{0303F2C9-CEBE-4B6F-BB4C-9B55ABCA436B}" name="Topic" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{C06B9FAB-27A1-48E3-91D5-456E066CD71A}" name="Definitions" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{31F1E629-A4C3-4ECE-83F4-88FD122A214F}" name="Research questions" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{152171F9-FD5F-4A47-9155-D0D843C9B045}" name="Inclusion criteria" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{4886FC61-7E8D-4E88-B42E-D57FAE612318}" name="Exclusion criteria" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{F3834B42-F426-43A1-A266-6B45913B3320}" name="Link" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{0303F2C9-CEBE-4B6F-BB4C-9B55ABCA436B}" name="Topic" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{C06B9FAB-27A1-48E3-91D5-456E066CD71A}" name="Definitions" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{31F1E629-A4C3-4ECE-83F4-88FD122A214F}" name="Research questions" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{152171F9-FD5F-4A47-9155-D0D843C9B045}" name="Inclusion criteria" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{4886FC61-7E8D-4E88-B42E-D57FAE612318}" name="Exclusion criteria" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{278F8B2F-F0C8-459C-B732-E0DF0BBF5987}" name="Tableau210" displayName="Tableau210" ref="A1:F6" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="A1:F6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A5982F48-6CDA-4074-B33A-AA9859EE1DA1}" name="Tableau29" displayName="Tableau29" ref="A1:F34" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
+  <autoFilter ref="A1:F34" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{429546C4-0EF0-4CF1-8BA6-49B4FEA593CC}" name="Link" dataDxfId="8" dataCellStyle="Lien hypertexte"/>
-    <tableColumn id="2" xr3:uid="{1068B8E7-2BA3-4E76-AD4F-3235E94A81FD}" name="Topic" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{6FD76E99-95FA-4A87-8A5A-4C251967636E}" name="Definitions" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{E523BF9C-7A65-41F3-9A06-38FF62A88F17}" name="Research questions" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{89ACB3EB-94D0-4CC3-A8EC-0F565935580D}" name="Inclusion criteria" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{297CE02D-609D-422B-9B38-47728FD82851}" name="Exclusion criteria" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{D7D90E9B-30D8-419E-A8C3-FEBE28A75DE8}" name="Link" dataDxfId="50" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="2" xr3:uid="{CA0C295F-0AE1-408A-AB75-8010A4BD1153}" name="Topic" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{EEC776FF-8C7C-42E3-96D6-CAA1243CD0B4}" name="Definitions" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{9100B27D-3AA5-48A3-8CAA-F0D85852F2F6}" name="Research questions" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{CEF82D53-E350-4632-A007-C8D8D040A237}" name="Inclusion criteria" dataDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{48859DA7-2ABA-4F18-8BD5-4FD5EC454262}" name="Exclusion criteria" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A5982F48-6CDA-4074-B33A-AA9859EE1DA1}" name="Tableau29" displayName="Tableau29" ref="A1:F34" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
-  <autoFilter ref="A1:F34" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{9F21A95C-CE81-4F39-8382-77F8CA6AFF63}" name="Tableau291112" displayName="Tableau291112" ref="A1:F7" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+  <autoFilter ref="A1:F7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D7D90E9B-30D8-419E-A8C3-FEBE28A75DE8}" name="Link" dataDxfId="30" dataCellStyle="Lien hypertexte"/>
-    <tableColumn id="2" xr3:uid="{CA0C295F-0AE1-408A-AB75-8010A4BD1153}" name="Topic" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{EEC776FF-8C7C-42E3-96D6-CAA1243CD0B4}" name="Definitions" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{9100B27D-3AA5-48A3-8CAA-F0D85852F2F6}" name="Research questions" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{CEF82D53-E350-4632-A007-C8D8D040A237}" name="Inclusion criteria" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{48859DA7-2ABA-4F18-8BD5-4FD5EC454262}" name="Exclusion criteria" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{838F3C3C-D92E-43FC-91B8-4261F04C324A}" name="Link" dataDxfId="34" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="2" xr3:uid="{63BD9556-D4C6-468F-9B25-09DC5C288A3F}" name="Topic" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{60972BAA-0127-4CD0-9709-B240266E1667}" name="Definitions" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{413B6281-F4E9-4593-8527-02D2109423F4}" name="Research questions" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{4C973CE1-25AD-4019-B8BB-C487D96F6512}" name="Inclusion criteria" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{EB2C5248-8FB4-4A74-AE93-379C9129E38C}" name="Exclusion criteria" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1896,6 +2431,514 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEBBFA14-1322-4E98-87BF-3DDDDE43EA58}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="24.1796875" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" customWidth="1"/>
+    <col min="5" max="5" width="28.6328125" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A3" s="16"/>
+      <c r="B3" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{CFA06BC9-342A-4258-BB2D-EEF37B0A8C08}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A8C2DB-A48E-4FCA-BDC2-A672730951E2}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="24.1796875" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" customWidth="1"/>
+    <col min="5" max="5" width="28.6328125" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="174" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A8" s="6"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="6"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="6"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="6"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="6"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="6"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="6"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="6"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="6"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="6"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="6"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="6"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="6"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="6"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="6"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="6"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{457CBEE1-CF33-47AE-8976-CFD6F1F07DD7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BE27D1-FC8B-4FCC-9577-8A1390EFCE79}">
   <dimension ref="A1:F18"/>
   <sheetViews>
@@ -2098,124 +3141,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508C21AA-42CD-4436-89CB-908061F0F07E}">
-  <dimension ref="A1:F7"/>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A605BA-CD4A-4954-943D-B03D1FA3E84E}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="24.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7265625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.6328125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="232" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="D3" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
-      <c r="D4" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="F5" s="10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="F6" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="F7" s="10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{4DB96C03-3D06-471F-987B-CD4A37D61BC4}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEBBFA14-1322-4E98-87BF-3DDDDE43EA58}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2247,14 +3178,257 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>224</v>
-      </c>
+    <row r="2" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="18"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="18"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A5" s="18"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="18"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="18"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="18"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="18"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{CFA06BC9-342A-4258-BB2D-EEF37B0A8C08}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{C4083498-8577-408D-A18A-855DB0003E6D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C5532A-FC34-407C-96B5-FEC1C4716903}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="24.1796875" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" customWidth="1"/>
+    <col min="5" max="5" width="28.6328125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="23.36328125" style="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="203" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="F7" s="21"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="6"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="6"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="3"/>
+      <c r="F11" s="21"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{BA3D02C7-7F6F-4396-B722-992C8EC4FBA5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2264,12 +3438,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A8C2DB-A48E-4FCA-BDC2-A672730951E2}">
-  <dimension ref="A1:F2"/>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F83910-2967-4B85-A916-FCE29DD58188}">
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2278,7 +3452,7 @@
     <col min="3" max="3" width="37.7265625" customWidth="1"/>
     <col min="4" max="4" width="40.453125" customWidth="1"/>
     <col min="5" max="5" width="28.6328125" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -2297,27 +3471,148 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>223</v>
-      </c>
+    <row r="2" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="12"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="12"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="174" x14ac:dyDescent="0.35">
+      <c r="A5" s="12"/>
+      <c r="B5" s="1"/>
+      <c r="D5" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="12"/>
+      <c r="B6" s="1"/>
+      <c r="D6" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="12"/>
+      <c r="B7" s="1"/>
+      <c r="D7" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="12"/>
+      <c r="B8" s="1"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="12"/>
+      <c r="B9" s="1"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="12"/>
+      <c r="B10" s="1"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="12"/>
+      <c r="B11" s="1"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="12"/>
+      <c r="B12" s="1"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="12"/>
+      <c r="B13" s="1"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{47CA9A73-8496-4A88-B275-9B18DCF6C1D7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A605BA-CD4A-4954-943D-B03D1FA3E84E}">
-  <dimension ref="A1:F2"/>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B6DEE2-F317-44E3-8C00-B83AE33B56C8}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2325,145 +3620,104 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="24.1796875" customWidth="1"/>
-    <col min="3" max="3" width="37.7265625" customWidth="1"/>
-    <col min="4" max="4" width="40.453125" customWidth="1"/>
-    <col min="5" max="5" width="28.6328125" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" customWidth="1"/>
+    <col min="1" max="2" width="24.1796875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="28.6328125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="10.6328125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>222</v>
+    <row r="2" spans="1:6" ht="290" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="11"/>
+      <c r="D4" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="11"/>
+      <c r="D5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="11"/>
+      <c r="F6" s="7" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{2FE4ABE4-FD59-436D-BE9B-43A41F323EE4}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{4C01A702-A952-4255-8374-A3AFAA1213A1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C5532A-FC34-407C-96B5-FEC1C4716903}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="24.1796875" customWidth="1"/>
-    <col min="3" max="3" width="37.7265625" customWidth="1"/>
-    <col min="4" max="4" width="40.453125" customWidth="1"/>
-    <col min="5" max="5" width="28.6328125" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F83910-2967-4B85-A916-FCE29DD58188}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="24.1796875" customWidth="1"/>
-    <col min="3" max="3" width="37.7265625" customWidth="1"/>
-    <col min="4" max="4" width="40.453125" customWidth="1"/>
-    <col min="5" max="5" width="28.6328125" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3272,118 +4526,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B6DEE2-F317-44E3-8C00-B83AE33B56C8}">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="24.1796875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="37.7265625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="40.453125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="28.6328125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="10.6328125" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="290" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="11"/>
-      <c r="D4" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="11"/>
-      <c r="D5" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="11"/>
-      <c r="F6" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{2FE4ABE4-FD59-436D-BE9B-43A41F323EE4}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{4C01A702-A952-4255-8374-A3AFAA1213A1}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13ACB25F-A7EC-4321-8707-32021CCE86B3}">
   <dimension ref="A1:F34"/>
   <sheetViews>
@@ -3582,4 +4724,116 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508C21AA-42CD-4436-89CB-908061F0F07E}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="24.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7265625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.6328125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="232" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="5"/>
+      <c r="D3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="5"/>
+      <c r="D4" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
+      <c r="F5" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="5"/>
+      <c r="F6" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="F7" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{4DB96C03-3D06-471F-987B-CD4A37D61BC4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>